--- a/website_content_creation/authors/Danielle_Greco/Author_form_DanielleGreco.xlsx
+++ b/website_content_creation/authors/Danielle_Greco/Author_form_DanielleGreco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Danielle_Greco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{D30DED2D-0B73-4A8C-BEF5-76B71931AC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32D2DF38-2002-4D1B-9E28-A2F453FC5378}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{D30DED2D-0B73-4A8C-BEF5-76B71931AC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{209AF736-9549-49A9-9778-232A4995D351}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="1845" windowWidth="28770" windowHeight="14355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,13 +147,13 @@
     <t>https://twitter.com/dan13llegreco</t>
   </si>
   <si>
-    <t>Great Lakes Forestry Centre</t>
-  </si>
-  <si>
     <t>https://www.nrcan.gc.ca/science-and-data/research-centres-and-labs/forestry-research-centres/great-lakes-forestry-centre/13459</t>
   </si>
   <si>
     <t>Watershed Ecology Team</t>
+  </si>
+  <si>
+    <t>Great Lakes Forestry Centre, Natural Resources Canada</t>
   </si>
 </sst>
 </file>
@@ -572,6 +572,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -581,7 +582,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -913,8 +913,8 @@
       <c r="A14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>42</v>
+      <c r="B14" s="33" t="s">
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -926,11 +926,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
@@ -982,10 +982,10 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="37"/>
+      <c r="B24" s="38"/>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
@@ -997,10 +997,10 @@
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="32" t="s">
         <v>40</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
